--- a/biology/Médecine/Matilda_Chaplin_Ayrton/Matilda_Chaplin_Ayrton.xlsx
+++ b/biology/Médecine/Matilda_Chaplin_Ayrton/Matilda_Chaplin_Ayrton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matilda Charlotte Chaplin Ayrton, née le 22 juin 1846 à Honfleur et morte le 19 juillet 1883 à Londres, est une médecin britannique. Elle est connue comme étant l'une des Sept d'Édimbourg, les premières étudiantes en médecine inscrites à l'université de cette ville d'Écosse. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matilda Chaplin naît à Honfleur[1],[2],[3] fille de John Clarke Chaplin, avocat de Watlington, dans le Norfolk, et de Matilda Adriana Ayrton[4],[5]. Sa famille vit à Edgbaston, où elle est baptisée à l'église St George d'Edgbaston en décembre 1846 puis s'installe à Kensington[6],[7]. 
-Matilda Chaplin étudie le dessin et la peinture, puis elle décide de devenir médecin en 1867[8]. Elle suit pendant deux ans les cours du Ladies' Medical College (en) à Londres et elle passe l'examen préliminaire de la Société des apothicaires mais se voit refuser l'inscription sur le registre médical qui lui aurait permis d'exercer comme médecin. À la même époque, Sophia Jex-Blake sollicite l'autorisation pour les femmes de s'inscrire aux études de médecine à l'université d'Édimbourg. L'université y consent sous réserve qu'un groupe de femmes s'inscrive, ce qui conduit Jex-Blake à demander que d'autres femmes la rejoignent. Matilda Chaplin est la deuxième candidate et, en octobre 1869, sept étudiantes sont inscrites à l'université d'Édimbourg, en médecine, rejointes l'année suivante par deux autres étudiantes[8]. Matilda Chaplin obtient son diplôme d'anatomie et de chirurgie du Royal College of Physicians and Surgeons d'Édimbourg en 1870-1871. Elle suit plusieurs cours de médecine à Paris durant la même période. Mais elle n'obtient pas le diplôme britannique qui lui permettrait d'exercer comme médecin[8].  
-En 1872, elle épouse son cousin, William Edward Ayrton[9]. En 1873, elle obtient un diplôme de sage-femme de la London Obstetric Society, seul diplôme médical accessible aux femmes en Angleterre[8]. Elle accompagne son mari lorsqu'il est nommé professeur à l'école impériale d'ingénieurs à Tokyo[10]. 
-Elle ouvre une école pour sages-femmes à Tokyo[8]. En 1877, les premiers symptômes de tuberculose se manifestent, l'obligeant à retourner en Angleterre[8]. Elle poursuit sa formation médicale à la London School of Medicine for Women[11]. Elle obtient son diplôme de médecine à Paris en 1879, puis à Dublin, au King and Queen's College of Physicians in Ireland (en), où elle est la seule candidate féminine. Elle mène quelques recherches sur les maladies des yeux au Royal Free Hospital[12]. 
-Elle publie plusieurs articles pour The Scotsman et d’autres périodiques sur la politique et les coutumes japonaises et est l'auteure d'un livre intitulé Child Life in Japan, qu'elle illustre elle-même[8]. Son état de santé s'aggrave en 1880, et elle passe l'hiver à Alger et Montpellier. Elle meurt des conséquences de la tuberculose à son domicile de Chelsea le 19 juillet 1883. Elle est enterrée au cimetière de Brompton le 24 juillet. 
-Sa fille, Edith Ayrton est connue comme auteure et féministe[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matilda Chaplin naît à Honfleur fille de John Clarke Chaplin, avocat de Watlington, dans le Norfolk, et de Matilda Adriana Ayrton,. Sa famille vit à Edgbaston, où elle est baptisée à l'église St George d'Edgbaston en décembre 1846 puis s'installe à Kensington,. 
+Matilda Chaplin étudie le dessin et la peinture, puis elle décide de devenir médecin en 1867. Elle suit pendant deux ans les cours du Ladies' Medical College (en) à Londres et elle passe l'examen préliminaire de la Société des apothicaires mais se voit refuser l'inscription sur le registre médical qui lui aurait permis d'exercer comme médecin. À la même époque, Sophia Jex-Blake sollicite l'autorisation pour les femmes de s'inscrire aux études de médecine à l'université d'Édimbourg. L'université y consent sous réserve qu'un groupe de femmes s'inscrive, ce qui conduit Jex-Blake à demander que d'autres femmes la rejoignent. Matilda Chaplin est la deuxième candidate et, en octobre 1869, sept étudiantes sont inscrites à l'université d'Édimbourg, en médecine, rejointes l'année suivante par deux autres étudiantes. Matilda Chaplin obtient son diplôme d'anatomie et de chirurgie du Royal College of Physicians and Surgeons d'Édimbourg en 1870-1871. Elle suit plusieurs cours de médecine à Paris durant la même période. Mais elle n'obtient pas le diplôme britannique qui lui permettrait d'exercer comme médecin.  
+En 1872, elle épouse son cousin, William Edward Ayrton. En 1873, elle obtient un diplôme de sage-femme de la London Obstetric Society, seul diplôme médical accessible aux femmes en Angleterre. Elle accompagne son mari lorsqu'il est nommé professeur à l'école impériale d'ingénieurs à Tokyo. 
+Elle ouvre une école pour sages-femmes à Tokyo. En 1877, les premiers symptômes de tuberculose se manifestent, l'obligeant à retourner en Angleterre. Elle poursuit sa formation médicale à la London School of Medicine for Women. Elle obtient son diplôme de médecine à Paris en 1879, puis à Dublin, au King and Queen's College of Physicians in Ireland (en), où elle est la seule candidate féminine. Elle mène quelques recherches sur les maladies des yeux au Royal Free Hospital. 
+Elle publie plusieurs articles pour The Scotsman et d’autres périodiques sur la politique et les coutumes japonaises et est l'auteure d'un livre intitulé Child Life in Japan, qu'elle illustre elle-même. Son état de santé s'aggrave en 1880, et elle passe l'hiver à Alger et Montpellier. Elle meurt des conséquences de la tuberculose à son domicile de Chelsea le 19 juillet 1883. Elle est enterrée au cimetière de Brompton le 24 juillet. 
+Sa fille, Edith Ayrton est connue comme auteure et féministe.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sept d'Édimbourg reçoivent à titre posthume le Bachelor of Medicine and Surgery honorifique lors d'une cérémonie qui se tient à l'université d'Édimbourg le 6 juillet 2019. Les diplômes sont reçus en leur nom par un groupe d’étudiantes de la faculté de médecine d'Édimbourg[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sept d'Édimbourg reçoivent à titre posthume le Bachelor of Medicine and Surgery honorifique lors d'une cérémonie qui se tient à l'université d'Édimbourg le 6 juillet 2019. Les diplômes sont reçus en leur nom par un groupe d’étudiantes de la faculté de médecine d'Édimbourg.
 </t>
         </is>
       </c>
